--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.4524</v>
+        <v>-12.5418</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.2354</v>
+        <v>-12.44220000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.066199999999998</v>
+        <v>5.632200000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.31870000000001</v>
+        <v>-22.39810000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.5661</v>
+        <v>-21.7641</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.821999999999997</v>
+        <v>-7.595200000000001</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.9923</v>
+        <v>-12.42679999999999</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.59450000000002</v>
+        <v>-21.57230000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.253699999999992</v>
+        <v>-7.303999999999993</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.14769999999999</v>
+        <v>-8.974899999999993</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.715500000000002</v>
+        <v>6.068900000000006</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.00929999999999</v>
+        <v>-12.3083</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.7222</v>
+        <v>-7.204900000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.753599999999996</v>
+        <v>4.664599999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.8689</v>
+        <v>-21.8847</v>
       </c>
       <c r="B18" t="n">
-        <v>6.314399999999998</v>
+        <v>6.358000000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.4691</v>
+        <v>-12.0359</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.3669</v>
+        <v>-11.5629</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.6005</v>
+        <v>8.843799999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.072</v>
+        <v>-12.3608</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.53479999999998</v>
+        <v>-21.51099999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.1736</v>
+        <v>-13.1947</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.933600000000004</v>
+        <v>4.942100000000006</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.387999999999996</v>
+        <v>-7.350699999999996</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.884599999999999</v>
+        <v>5.324200000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.8269</v>
+        <v>4.391999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.4052</v>
+        <v>-13.60869999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.002799999999993</v>
+        <v>-8.960899999999993</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.105900000000005</v>
+        <v>8.205700000000002</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.449599999999998</v>
+        <v>-8.225299999999994</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.00559999999999</v>
+        <v>-19.14659999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.9868</v>
+        <v>-12.9936</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.124199999999991</v>
+        <v>9.253599999999997</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.8527</v>
+        <v>-11.73010000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.855199999999999</v>
+        <v>-7.963899999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,10 +1179,10 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.1694</v>
+        <v>5.482800000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.06509999999999</v>
+        <v>-13.42779999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.7686</v>
+        <v>-12.58</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.649699999999997</v>
+        <v>-7.444999999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.217200000000005</v>
+        <v>-8.231000000000003</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.821899999999997</v>
+        <v>4.728699999999996</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.224199999999993</v>
+        <v>-8.296499999999995</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.160300000000001</v>
+        <v>-8.088899999999994</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.708100000000001</v>
+        <v>4.791599999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1765</v>
+        <v>-21.9429</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.55499999999999</v>
+        <v>-13.68249999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.370799999999996</v>
+        <v>-8.443300000000001</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.70309999999999</v>
+        <v>-12.456</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.994999999999997</v>
+        <v>-7.987699999999998</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.4115</v>
+        <v>-11.99810000000001</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.50670000000002</v>
+        <v>-21.49410000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.586000000000001</v>
+        <v>4.441600000000001</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.382999999999994</v>
+        <v>-7.291499999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.821199999999991</v>
+        <v>-7.717399999999994</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.82670000000001</v>
+        <v>-12.6933</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.585899999999998</v>
+        <v>6.043499999999994</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.97329999999998</v>
+        <v>-20.13289999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.93909999999998</v>
+        <v>-20.06649999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.87489999999998</v>
+        <v>-19.96609999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.3519</v>
+        <v>-6.361300000000004</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.73989999999998</v>
+        <v>-19.81659999999997</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.71820000000001</v>
+        <v>-21.7295</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.5219</v>
+        <v>-7.356299999999996</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.77000000000001</v>
+        <v>-21.7775</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.95780000000001</v>
+        <v>-22.046</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.831199999999994</v>
+        <v>4.790099999999995</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.587299999999998</v>
+        <v>4.703499999999996</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.12719999999999</v>
+        <v>-12.8744</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.776299999999997</v>
+        <v>5.908399999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>-12.1106</v>
+        <v>-12.3508</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.583499999999999</v>
+        <v>-6.594799999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.08870000000001</v>
+        <v>-10.12060000000001</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.644</v>
+        <v>-12.34279999999999</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.247100000000005</v>
+        <v>5.226100000000003</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.000000000000001</v>
+        <v>6.225499999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.55239999999998</v>
+        <v>-21.57319999999998</v>
       </c>
       <c r="B101" t="n">
-        <v>5.827499999999998</v>
+        <v>6.0762</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.362</v>
+        <v>-12.69669999999999</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.68969999999998</v>
+        <v>-21.8016</v>
       </c>
       <c r="B102" t="n">
-        <v>5.319600000000005</v>
+        <v>5.624500000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
